--- a/docs/qualitydb.xlsx
+++ b/docs/qualitydb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="220" windowWidth="24560" windowHeight="17020" tabRatio="500"/>
+    <workbookView xWindow="11440" yWindow="-80" windowWidth="14400" windowHeight="17020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,251 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="60">
+  <si>
+    <t>urban</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimalist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">urban </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hipster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>futuristic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dapper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>professional</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>metro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hipster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hipster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORE NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUALITY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NastyGal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anthropologie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dollskill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>For Love &amp; Lemons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone Cold Fox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sugarhigh + Lovestoned</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stoned Immaculate Vintage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topshop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASOS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>American Apparel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Urban Outfitters</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RVCA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSENSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barney's</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kitson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nordstrom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR PORTER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>End.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mass &amp; Stacks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HAVEN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BureauBelfast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union LosAngelos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NorseStore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Huf </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>female</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>edgy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sexy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bohemian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flirty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>futuristic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grunge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bohemian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vintage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vintage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimalist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>edgy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>male</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>female</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>casual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sporty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
@@ -26,8 +271,13 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -56,8 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,15 +639,1147 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" t="s">
+        <v>55</v>
+      </c>
+      <c r="C86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>37</v>
+      </c>
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" t="s">
+        <v>55</v>
+      </c>
+      <c r="C101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" t="s">
+        <v>55</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;CStore Qualities</oddHeader>
+  </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
